--- a/DATA_goal/Junction_Flooding_284.xlsx
+++ b/DATA_goal/Junction_Flooding_284.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41716.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.13</v>
+        <v>2.31</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>23.74</v>
+        <v>2.37</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>121.93</v>
+        <v>12.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.41</v>
+        <v>2.34</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.15</v>
+        <v>2.11</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41716.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.24</v>
+        <v>1.52</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>33.56</v>
+        <v>3.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.58</v>
+        <v>2.66</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.85</v>
+        <v>1.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>44.59</v>
+        <v>4.46</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.69</v>
+        <v>1.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.96</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>176.94</v>
+        <v>17.69</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>33.82</v>
+        <v>3.38</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.7</v>
+        <v>2.27</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.15</v>
+        <v>1.41</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.7</v>
+        <v>4.07</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41716.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.84</v>
+        <v>2.48</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.74</v>
+        <v>1.97</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.26</v>
+        <v>3.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.1</v>
+        <v>0.61</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>128.88</v>
+        <v>12.89</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.08</v>
+        <v>2.51</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.11</v>
+        <v>3.31</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41716.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.65</v>
+        <v>0.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.72</v>
+        <v>2.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
         <v>8.539999999999999</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>85.38</v>
-      </c>
       <c r="U5" s="4" t="n">
-        <v>17.11</v>
+        <v>1.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.46</v>
+        <v>1.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.48</v>
+        <v>2.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41716.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>6.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>20.26</v>
+        <v>2.03</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>28.4</v>
+        <v>2.84</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>103.68</v>
+        <v>10.37</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>20.38</v>
+        <v>2.04</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>25.72</v>
+        <v>2.57</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41716.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>22.68</v>
+        <v>2.27</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>49.53</v>
+        <v>4.95</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>40.55</v>
+        <v>4.06</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>66.62</v>
+        <v>6.66</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>27.54</v>
+        <v>2.75</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>18.15</v>
+        <v>1.82</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>19.87</v>
+        <v>1.99</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>21.12</v>
+        <v>2.11</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>25.35</v>
+        <v>2.54</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>263.93</v>
+        <v>26.39</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>49.78</v>
+        <v>4.98</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>16.45</v>
+        <v>1.64</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>33.52</v>
+        <v>3.35</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>33.11</v>
+        <v>3.31</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>20.89</v>
+        <v>2.09</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>60.45</v>
+        <v>6.05</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>20.57</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41716.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V8" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>28.61</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>85.41</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>5.62</v>
-      </c>
       <c r="W8" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>4.45</v>
+        <v>0.44</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>26.34</v>
+        <v>2.63</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41716.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>19.91</v>
+        <v>1.99</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>43.47</v>
+        <v>4.35</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>35.64</v>
+        <v>3.56</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>58.67</v>
+        <v>5.87</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>24.17</v>
+        <v>2.42</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>18.53</v>
+        <v>1.85</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>22.26</v>
+        <v>2.23</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>230.73</v>
+        <v>23.07</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>43.67</v>
+        <v>4.37</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>29.43</v>
+        <v>2.94</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>28.98</v>
+        <v>2.9</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>18.34</v>
+        <v>1.83</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>53.11</v>
+        <v>5.31</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41716.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>3.88</v>
+        <v>0.39</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>20.26</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.88</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_284.xlsx
+++ b/DATA_goal/Junction_Flooding_284.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44965.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>49.63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.11</v>
+        <v>41.06</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.17</v>
+        <v>61.72</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.26</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>27.31</v>
+        <v>273.07</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.13</v>
+        <v>51.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.41</v>
+        <v>34.14</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.62</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.74</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.03</v>
+        <v>20.3</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.59</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44965.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.31</v>
+        <v>23.06</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.65</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.95</v>
+        <v>49.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.1</v>
+        <v>41</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.81</v>
+        <v>18.15</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.05</v>
+        <v>70.45</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.79</v>
+        <v>27.92</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.47</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.84</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.82</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.56</v>
+        <v>25.59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.23</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.74</v>
+        <v>267.38</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.05</v>
+        <v>50.49</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.38</v>
+        <v>33.78</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.92</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.4</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.76</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.37</v>
+        <v>63.72</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.35</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44965.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>9</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.94</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.7</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.72</v>
+        <v>27.24</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44965.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.85</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.21</v>
+        <v>32.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.66</v>
+        <v>26.57</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.43</v>
+        <v>44.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.93</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.01</v>
+        <v>170.06</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.25</v>
+        <v>32.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.18</v>
+        <v>21.78</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.45</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.99</v>
+        <v>39.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_284.xlsx
+++ b/DATA_goal/Junction_Flooding_284.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,34 +655,34 @@
         <v>44965.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.3</v>
+        <v>16.304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.24</v>
+        <v>4.244</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>49.63</v>
+        <v>49.627</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.06</v>
+        <v>41.058</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.53</v>
+        <v>18.526</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>61.72</v>
+        <v>61.718</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.16</v>
+        <v>12.158</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.74</v>
+        <v>18.744</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>19.59</v>
@@ -691,67 +691,67 @@
         <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.92</v>
+        <v>5.915</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.95</v>
+        <v>25.954</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.33</v>
+        <v>15.331</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.81</v>
+        <v>3.814</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.6</v>
+        <v>2.604</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>273.07</v>
+        <v>273.066</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>51.31</v>
+        <v>51.313</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.14</v>
+        <v>34.141</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.29</v>
+        <v>2.295</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.62</v>
+        <v>30.618</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.45</v>
+        <v>13.452</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.74</v>
+        <v>15.735</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.3</v>
+        <v>20.304</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>54.59</v>
+        <v>54.593</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.5</v>
+        <v>9.503</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>23.06</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.65</v>
+        <v>16.647</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.04</v>
+        <v>2.038</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>49.54</v>
+        <v>49.542</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41</v>
+        <v>41.005</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.15</v>
+        <v>18.148</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>70.45</v>
+        <v>70.453</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.92</v>
+        <v>27.923</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.23</v>
+        <v>12.233</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.47</v>
+        <v>18.469</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.84</v>
+        <v>19.843</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.82</v>
+        <v>20.817</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.8</v>
+        <v>5.797</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.05</v>
+        <v>18.046</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.59</v>
+        <v>25.592</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.23</v>
+        <v>15.233</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.69</v>
+        <v>1.689</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.266</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>267.38</v>
+        <v>267.377</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>50.49</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.66</v>
+        <v>16.657</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.78</v>
+        <v>33.778</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.92</v>
+        <v>17.923</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.26</v>
+        <v>2.264</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34</v>
+        <v>34.002</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.71</v>
+        <v>14.713</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.16</v>
+        <v>13.161</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.44</v>
+        <v>15.435</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.76</v>
+        <v>20.756</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>63.72</v>
+        <v>63.721</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.35</v>
+        <v>9.349</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.83</v>
+        <v>20.826</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44965.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.17</v>
+        <v>8.167</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.69</v>
+        <v>5.687</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.047</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>17.36</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.39</v>
+        <v>14.392</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.43</v>
+        <v>6.428</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>29.96</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.26</v>
+        <v>4.261</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.99</v>
+        <v>6.995</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.24</v>
+        <v>7.238</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.06</v>
+        <v>2.058</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.022</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.55</v>
+        <v>5.553</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.018</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.57</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.98999999999999</v>
+        <v>89.988</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.07</v>
+        <v>18.073</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.9</v>
+        <v>5.899</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.94</v>
+        <v>11.938</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.43</v>
+        <v>6.426</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>0.75</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.7</v>
+        <v>13.698</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.76</v>
+        <v>4.761</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.56</v>
+        <v>5.565</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.29</v>
+        <v>7.287</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>27.24</v>
+        <v>27.242</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.24</v>
+        <v>3.242</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.38</v>
+        <v>7.377</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44965.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_284.xlsx
+++ b/DATA_goal/Junction_Flooding_284.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44965.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.89</v>
+        <v>14.893</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.85</v>
+        <v>10.854</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.056</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.09</v>
+        <v>32.093</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.57</v>
+        <v>26.566</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.35</v>
+        <v>44.348</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.94</v>
+        <v>7.937</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.93</v>
+        <v>11.928</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>12.93</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.53</v>
+        <v>13.527</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.74</v>
+        <v>3.743</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.53</v>
+        <v>16.528</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>9.877000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.823</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.665</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.06</v>
+        <v>170.064</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.54</v>
+        <v>32.538</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.78</v>
+        <v>21.784</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.64</v>
+        <v>11.645</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.45</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.44</v>
+        <v>21.437</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.48</v>
+        <v>8.483000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.54</v>
+        <v>13.541</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>39.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.03</v>
+        <v>6.032</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44965.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_284.xlsx
+++ b/DATA_goal/Junction_Flooding_284.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44965.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.893</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.854</v>
+        <v>10.85</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.056</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.093</v>
+        <v>32.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.566</v>
+        <v>26.57</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.348</v>
+        <v>44.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.033</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.937</v>
+        <v>7.94</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.928</v>
+        <v>11.93</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>12.93</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.527</v>
+        <v>13.53</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.743</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.655</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.528</v>
+        <v>16.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.877000000000001</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.823</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.665</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.064</v>
+        <v>170.06</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.538</v>
+        <v>32.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.758</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.784</v>
+        <v>21.78</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.645</v>
+        <v>11.64</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.45</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.437</v>
+        <v>21.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.483000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.957000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.541</v>
+        <v>13.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>39.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.032</v>
+        <v>6.03</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44965.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.04</v>
       </c>
     </row>
   </sheetData>
